--- a/测试单-电子书_txt-word_161023.xlsx
+++ b/测试单-电子书_txt-word_161023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$245</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="622">
   <si>
     <t>编号</t>
   </si>
@@ -4642,6 +4642,14 @@
   </si>
   <si>
     <t>复检已修改txt。新增编号233~243记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7573,10 +7581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G243" sqref="G243"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N246" sqref="N246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7660,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="240" customFormat="1" ht="81">
+    <row r="3" spans="1:16" s="240" customFormat="1" ht="81" hidden="1">
       <c r="A3" s="234">
         <v>1</v>
       </c>
@@ -7704,7 +7713,7 @@
       </c>
       <c r="P3" s="354"/>
     </row>
-    <row r="4" spans="1:16" s="70" customFormat="1" ht="81">
+    <row r="4" spans="1:16" s="70" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="255">
         <v>2</v>
       </c>
@@ -7742,7 +7751,7 @@
       </c>
       <c r="P4" s="370"/>
     </row>
-    <row r="5" spans="1:16" s="70" customFormat="1" ht="54">
+    <row r="5" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="255">
         <v>3</v>
       </c>
@@ -7782,7 +7791,7 @@
       </c>
       <c r="P5" s="370"/>
     </row>
-    <row r="6" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="6" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A6" s="255">
         <v>4</v>
       </c>
@@ -7824,7 +7833,7 @@
       </c>
       <c r="P6" s="370"/>
     </row>
-    <row r="7" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="7" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="255">
         <v>5</v>
       </c>
@@ -7864,7 +7873,7 @@
       </c>
       <c r="P7" s="370"/>
     </row>
-    <row r="8" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="8" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="255">
         <v>6</v>
       </c>
@@ -7904,7 +7913,7 @@
       </c>
       <c r="P8" s="370"/>
     </row>
-    <row r="9" spans="1:16" s="70" customFormat="1" ht="40.5">
+    <row r="9" spans="1:16" s="70" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="255">
         <v>7</v>
       </c>
@@ -7984,7 +7993,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="92" customFormat="1" ht="40.5">
+    <row r="11" spans="1:16" s="92" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="255">
         <v>9</v>
       </c>
@@ -8022,7 +8031,7 @@
       <c r="O11" s="364"/>
       <c r="P11" s="367"/>
     </row>
-    <row r="12" spans="1:16" s="70" customFormat="1" ht="40.5">
+    <row r="12" spans="1:16" s="70" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="255">
         <v>10</v>
       </c>
@@ -8058,7 +8067,7 @@
       <c r="O12" s="359"/>
       <c r="P12" s="370"/>
     </row>
-    <row r="13" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="13" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="255">
         <v>11</v>
       </c>
@@ -8094,7 +8103,7 @@
       <c r="O13" s="359"/>
       <c r="P13" s="370"/>
     </row>
-    <row r="14" spans="1:16" s="248" customFormat="1" ht="81">
+    <row r="14" spans="1:16" s="248" customFormat="1" ht="81" hidden="1">
       <c r="A14" s="255">
         <v>12</v>
       </c>
@@ -8132,7 +8141,7 @@
       </c>
       <c r="P14" s="370"/>
     </row>
-    <row r="15" spans="1:16" s="248" customFormat="1" ht="67.5">
+    <row r="15" spans="1:16" s="248" customFormat="1" ht="67.5" hidden="1">
       <c r="A15" s="255">
         <v>13</v>
       </c>
@@ -8170,7 +8179,7 @@
       </c>
       <c r="P15" s="370"/>
     </row>
-    <row r="16" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="16" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A16" s="255">
         <v>14</v>
       </c>
@@ -8208,7 +8217,7 @@
       </c>
       <c r="P16" s="370"/>
     </row>
-    <row r="17" spans="1:16" s="248" customFormat="1" ht="40.5">
+    <row r="17" spans="1:16" s="248" customFormat="1" ht="40.5" hidden="1">
       <c r="A17" s="255">
         <v>15</v>
       </c>
@@ -8246,7 +8255,7 @@
       </c>
       <c r="P17" s="370"/>
     </row>
-    <row r="18" spans="1:16" s="240" customFormat="1" ht="40.5">
+    <row r="18" spans="1:16" s="240" customFormat="1" ht="40.5" hidden="1">
       <c r="A18" s="300">
         <v>16</v>
       </c>
@@ -8286,7 +8295,7 @@
       </c>
       <c r="P18" s="354"/>
     </row>
-    <row r="19" spans="1:16" s="315" customFormat="1" ht="229.5">
+    <row r="19" spans="1:16" s="315" customFormat="1" ht="229.5" hidden="1">
       <c r="A19" s="300">
         <v>17</v>
       </c>
@@ -8326,7 +8335,7 @@
       </c>
       <c r="P19" s="398"/>
     </row>
-    <row r="20" spans="1:16" s="315" customFormat="1" ht="67.5">
+    <row r="20" spans="1:16" s="315" customFormat="1" ht="67.5" hidden="1">
       <c r="A20" s="300">
         <v>18</v>
       </c>
@@ -8366,7 +8375,7 @@
       </c>
       <c r="P20" s="398"/>
     </row>
-    <row r="21" spans="1:16" s="399" customFormat="1" ht="216">
+    <row r="21" spans="1:16" s="399" customFormat="1" ht="216" hidden="1">
       <c r="A21" s="347">
         <v>19</v>
       </c>
@@ -8408,7 +8417,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="240" customFormat="1" ht="81">
+    <row r="22" spans="1:16" s="240" customFormat="1" ht="81" hidden="1">
       <c r="A22" s="300">
         <v>20</v>
       </c>
@@ -8446,7 +8455,7 @@
       </c>
       <c r="P22" s="354"/>
     </row>
-    <row r="23" spans="1:16" s="170" customFormat="1" ht="108">
+    <row r="23" spans="1:16" s="170" customFormat="1" ht="108" hidden="1">
       <c r="A23" s="255">
         <v>21</v>
       </c>
@@ -8484,7 +8493,7 @@
       </c>
       <c r="P23" s="370"/>
     </row>
-    <row r="24" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="24" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A24" s="255">
         <v>22</v>
       </c>
@@ -8522,7 +8531,7 @@
       </c>
       <c r="P24" s="370"/>
     </row>
-    <row r="25" spans="1:16" s="240" customFormat="1" ht="40.5">
+    <row r="25" spans="1:16" s="240" customFormat="1" ht="40.5" hidden="1">
       <c r="A25" s="300">
         <v>23</v>
       </c>
@@ -8562,7 +8571,7 @@
       </c>
       <c r="P25" s="354"/>
     </row>
-    <row r="26" spans="1:16" s="70" customFormat="1" ht="54">
+    <row r="26" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A26" s="255">
         <v>24</v>
       </c>
@@ -8596,7 +8605,7 @@
       <c r="O26" s="359"/>
       <c r="P26" s="370"/>
     </row>
-    <row r="27" spans="1:16" s="248" customFormat="1" ht="135">
+    <row r="27" spans="1:16" s="248" customFormat="1" ht="135" hidden="1">
       <c r="A27" s="255">
         <v>25</v>
       </c>
@@ -8638,7 +8647,7 @@
       </c>
       <c r="P27" s="370"/>
     </row>
-    <row r="28" spans="1:16" s="315" customFormat="1" ht="256.5">
+    <row r="28" spans="1:16" s="315" customFormat="1" ht="256.5" hidden="1">
       <c r="A28" s="300">
         <v>26</v>
       </c>
@@ -8682,7 +8691,7 @@
       </c>
       <c r="P28" s="398"/>
     </row>
-    <row r="29" spans="1:16" s="315" customFormat="1" ht="135">
+    <row r="29" spans="1:16" s="315" customFormat="1" ht="135" hidden="1">
       <c r="A29" s="300">
         <v>27</v>
       </c>
@@ -8720,7 +8729,7 @@
       </c>
       <c r="P29" s="398"/>
     </row>
-    <row r="30" spans="1:16" s="193" customFormat="1" ht="67.5">
+    <row r="30" spans="1:16" s="193" customFormat="1" ht="67.5" hidden="1">
       <c r="A30" s="255">
         <v>28</v>
       </c>
@@ -8754,7 +8763,7 @@
       <c r="O30" s="349"/>
       <c r="P30" s="354"/>
     </row>
-    <row r="31" spans="1:16" s="193" customFormat="1" ht="54">
+    <row r="31" spans="1:16" s="193" customFormat="1" ht="54" hidden="1">
       <c r="A31" s="255">
         <v>29</v>
       </c>
@@ -8790,7 +8799,7 @@
       <c r="O31" s="349"/>
       <c r="P31" s="354"/>
     </row>
-    <row r="32" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="32" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A32" s="255">
         <v>30</v>
       </c>
@@ -8828,7 +8837,7 @@
       </c>
       <c r="P32" s="370"/>
     </row>
-    <row r="33" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="33" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A33" s="255">
         <v>31</v>
       </c>
@@ -8866,7 +8875,7 @@
       </c>
       <c r="P33" s="370"/>
     </row>
-    <row r="34" spans="1:16" s="170" customFormat="1" ht="94.5">
+    <row r="34" spans="1:16" s="170" customFormat="1" ht="94.5" hidden="1">
       <c r="A34" s="255">
         <v>32</v>
       </c>
@@ -8904,7 +8913,7 @@
       </c>
       <c r="P34" s="370"/>
     </row>
-    <row r="35" spans="1:16" s="170" customFormat="1" ht="67.5">
+    <row r="35" spans="1:16" s="170" customFormat="1" ht="67.5" hidden="1">
       <c r="A35" s="255">
         <v>33</v>
       </c>
@@ -8942,7 +8951,7 @@
       </c>
       <c r="P35" s="370"/>
     </row>
-    <row r="36" spans="1:16" s="70" customFormat="1">
+    <row r="36" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A36" s="255">
         <v>34</v>
       </c>
@@ -8980,7 +8989,7 @@
       <c r="O36" s="359"/>
       <c r="P36" s="370"/>
     </row>
-    <row r="37" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="37" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A37" s="255">
         <v>35</v>
       </c>
@@ -9022,7 +9031,7 @@
       </c>
       <c r="P37" s="370"/>
     </row>
-    <row r="38" spans="1:16" s="170" customFormat="1">
+    <row r="38" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A38" s="255">
         <v>36</v>
       </c>
@@ -9066,7 +9075,7 @@
       </c>
       <c r="P38" s="370"/>
     </row>
-    <row r="39" spans="1:16" s="170" customFormat="1">
+    <row r="39" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A39" s="255">
         <v>37</v>
       </c>
@@ -9102,7 +9111,7 @@
       <c r="O39" s="359"/>
       <c r="P39" s="370"/>
     </row>
-    <row r="40" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="40" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A40" s="255">
         <v>38</v>
       </c>
@@ -9142,7 +9151,7 @@
       <c r="O40" s="359"/>
       <c r="P40" s="370"/>
     </row>
-    <row r="41" spans="1:16" s="70" customFormat="1" ht="54">
+    <row r="41" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="255">
         <v>39</v>
       </c>
@@ -9182,7 +9191,7 @@
       </c>
       <c r="P41" s="370"/>
     </row>
-    <row r="42" spans="1:16" s="170" customFormat="1" ht="108">
+    <row r="42" spans="1:16" s="170" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="255">
         <v>40</v>
       </c>
@@ -9222,7 +9231,7 @@
       </c>
       <c r="P42" s="370"/>
     </row>
-    <row r="43" spans="1:16" s="170" customFormat="1" ht="256.5">
+    <row r="43" spans="1:16" s="170" customFormat="1" ht="256.5" hidden="1">
       <c r="A43" s="255">
         <v>41</v>
       </c>
@@ -9262,7 +9271,7 @@
       </c>
       <c r="P43" s="370"/>
     </row>
-    <row r="44" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="44" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A44" s="255">
         <v>42</v>
       </c>
@@ -9300,7 +9309,7 @@
       </c>
       <c r="P44" s="370"/>
     </row>
-    <row r="45" spans="1:16" s="170" customFormat="1" ht="121.5">
+    <row r="45" spans="1:16" s="170" customFormat="1" ht="121.5" hidden="1">
       <c r="A45" s="255">
         <v>43</v>
       </c>
@@ -9338,7 +9347,7 @@
       </c>
       <c r="P45" s="370"/>
     </row>
-    <row r="46" spans="1:16" s="170" customFormat="1" ht="270">
+    <row r="46" spans="1:16" s="170" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="255">
         <v>44</v>
       </c>
@@ -9378,7 +9387,7 @@
       </c>
       <c r="P46" s="370"/>
     </row>
-    <row r="47" spans="1:16" s="216" customFormat="1" ht="121.5">
+    <row r="47" spans="1:16" s="216" customFormat="1" ht="121.5" hidden="1">
       <c r="A47" s="255">
         <v>45</v>
       </c>
@@ -9414,7 +9423,7 @@
       <c r="O47" s="389"/>
       <c r="P47" s="392"/>
     </row>
-    <row r="48" spans="1:16" s="170" customFormat="1" ht="94.5">
+    <row r="48" spans="1:16" s="170" customFormat="1" ht="94.5" hidden="1">
       <c r="A48" s="255">
         <v>46</v>
       </c>
@@ -9450,7 +9459,7 @@
       <c r="O48" s="359"/>
       <c r="P48" s="370"/>
     </row>
-    <row r="49" spans="1:16" s="315" customFormat="1" ht="108">
+    <row r="49" spans="1:16" s="315" customFormat="1" ht="108" hidden="1">
       <c r="A49" s="300">
         <v>47</v>
       </c>
@@ -9494,7 +9503,7 @@
       </c>
       <c r="P49" s="398"/>
     </row>
-    <row r="50" spans="1:16" s="315" customFormat="1" ht="135">
+    <row r="50" spans="1:16" s="315" customFormat="1" ht="135" hidden="1">
       <c r="A50" s="300">
         <v>48</v>
       </c>
@@ -9536,7 +9545,7 @@
       </c>
       <c r="P50" s="398"/>
     </row>
-    <row r="51" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="51" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="255">
         <v>49</v>
       </c>
@@ -9572,7 +9581,7 @@
       <c r="O51" s="359"/>
       <c r="P51" s="370"/>
     </row>
-    <row r="52" spans="1:16" s="240" customFormat="1" ht="67.5">
+    <row r="52" spans="1:16" s="240" customFormat="1" ht="67.5" hidden="1">
       <c r="A52" s="234">
         <v>50</v>
       </c>
@@ -9614,7 +9623,7 @@
       </c>
       <c r="P52" s="354"/>
     </row>
-    <row r="53" spans="1:16" s="170" customFormat="1">
+    <row r="53" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A53" s="255">
         <v>51</v>
       </c>
@@ -9650,7 +9659,7 @@
       <c r="O53" s="359"/>
       <c r="P53" s="370"/>
     </row>
-    <row r="54" spans="1:16" s="248" customFormat="1" ht="108">
+    <row r="54" spans="1:16" s="248" customFormat="1" ht="108" hidden="1">
       <c r="A54" s="255">
         <v>52</v>
       </c>
@@ -9694,7 +9703,7 @@
       </c>
       <c r="P54" s="370"/>
     </row>
-    <row r="55" spans="1:16" s="170" customFormat="1">
+    <row r="55" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A55" s="255">
         <v>53</v>
       </c>
@@ -9734,7 +9743,7 @@
       </c>
       <c r="P55" s="370"/>
     </row>
-    <row r="56" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="56" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="255">
         <v>54</v>
       </c>
@@ -9772,7 +9781,7 @@
       </c>
       <c r="P56" s="370"/>
     </row>
-    <row r="57" spans="1:16" s="216" customFormat="1" ht="189">
+    <row r="57" spans="1:16" s="216" customFormat="1" ht="189" hidden="1">
       <c r="A57" s="255">
         <v>55</v>
       </c>
@@ -9810,7 +9819,7 @@
       <c r="O57" s="389"/>
       <c r="P57" s="392"/>
     </row>
-    <row r="58" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="255">
         <v>56</v>
       </c>
@@ -9848,7 +9857,7 @@
       </c>
       <c r="P58" s="354"/>
     </row>
-    <row r="59" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="59" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="255">
         <v>57</v>
       </c>
@@ -9886,7 +9895,7 @@
       </c>
       <c r="P59" s="354"/>
     </row>
-    <row r="60" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="60" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="255">
         <v>58</v>
       </c>
@@ -9926,7 +9935,7 @@
       </c>
       <c r="P60" s="370"/>
     </row>
-    <row r="61" spans="1:16" s="80" customFormat="1" ht="40.5">
+    <row r="61" spans="1:16" s="80" customFormat="1" ht="40.5" hidden="1">
       <c r="A61" s="255">
         <v>59</v>
       </c>
@@ -9964,7 +9973,7 @@
       </c>
       <c r="P61" s="344"/>
     </row>
-    <row r="62" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="62" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="255">
         <v>60</v>
       </c>
@@ -10006,7 +10015,7 @@
       </c>
       <c r="P62" s="370"/>
     </row>
-    <row r="63" spans="1:16" s="70" customFormat="1">
+    <row r="63" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A63" s="255">
         <v>61</v>
       </c>
@@ -10046,7 +10055,7 @@
       </c>
       <c r="P63" s="370"/>
     </row>
-    <row r="64" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="64" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="255">
         <v>62</v>
       </c>
@@ -10090,7 +10099,7 @@
       </c>
       <c r="P64" s="370"/>
     </row>
-    <row r="65" spans="1:16" s="70" customFormat="1">
+    <row r="65" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A65" s="255">
         <v>63</v>
       </c>
@@ -10130,7 +10139,7 @@
       </c>
       <c r="P65" s="370"/>
     </row>
-    <row r="66" spans="1:16" s="70" customFormat="1">
+    <row r="66" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A66" s="255">
         <v>64</v>
       </c>
@@ -10170,7 +10179,7 @@
       </c>
       <c r="P66" s="370"/>
     </row>
-    <row r="67" spans="1:16" s="95" customFormat="1" ht="40.5">
+    <row r="67" spans="1:16" s="95" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="255">
         <v>65</v>
       </c>
@@ -10210,7 +10219,7 @@
       </c>
       <c r="P67" s="370"/>
     </row>
-    <row r="68" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="68" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="255">
         <v>66</v>
       </c>
@@ -10250,7 +10259,7 @@
       </c>
       <c r="P68" s="370"/>
     </row>
-    <row r="69" spans="1:16" s="70" customFormat="1">
+    <row r="69" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A69" s="255">
         <v>67</v>
       </c>
@@ -10290,7 +10299,7 @@
       </c>
       <c r="P69" s="370"/>
     </row>
-    <row r="70" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="70" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A70" s="255">
         <v>68</v>
       </c>
@@ -10334,7 +10343,7 @@
       </c>
       <c r="P70" s="370"/>
     </row>
-    <row r="71" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="71" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="255">
         <v>69</v>
       </c>
@@ -10376,7 +10385,7 @@
       </c>
       <c r="P71" s="370"/>
     </row>
-    <row r="72" spans="1:16" s="70" customFormat="1">
+    <row r="72" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A72" s="255">
         <v>70</v>
       </c>
@@ -10416,7 +10425,7 @@
       </c>
       <c r="P72" s="370"/>
     </row>
-    <row r="73" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="73" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A73" s="255">
         <v>71</v>
       </c>
@@ -10458,7 +10467,7 @@
       </c>
       <c r="P73" s="370"/>
     </row>
-    <row r="74" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="74" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="255">
         <v>72</v>
       </c>
@@ -10500,7 +10509,7 @@
       </c>
       <c r="P74" s="370"/>
     </row>
-    <row r="75" spans="1:16" s="70" customFormat="1">
+    <row r="75" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A75" s="255">
         <v>73</v>
       </c>
@@ -10540,7 +10549,7 @@
       </c>
       <c r="P75" s="370"/>
     </row>
-    <row r="76" spans="1:16" s="240" customFormat="1" ht="94.5">
+    <row r="76" spans="1:16" s="240" customFormat="1" ht="94.5" hidden="1">
       <c r="A76" s="234">
         <v>74</v>
       </c>
@@ -10582,7 +10591,7 @@
       </c>
       <c r="P76" s="354"/>
     </row>
-    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5">
+    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5" hidden="1">
       <c r="A77" s="255">
         <v>75</v>
       </c>
@@ -10620,7 +10629,7 @@
       </c>
       <c r="P77" s="354"/>
     </row>
-    <row r="78" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="78" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="255">
         <v>76</v>
       </c>
@@ -10660,7 +10669,7 @@
       </c>
       <c r="P78" s="370"/>
     </row>
-    <row r="79" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="79" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="255">
         <v>77</v>
       </c>
@@ -10734,7 +10743,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="240" customFormat="1" ht="40.5">
+    <row r="81" spans="1:16" s="240" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="234">
         <v>79</v>
       </c>
@@ -10776,7 +10785,7 @@
       </c>
       <c r="P81" s="354"/>
     </row>
-    <row r="82" spans="1:16" s="315" customFormat="1" ht="67.5">
+    <row r="82" spans="1:16" s="315" customFormat="1" ht="67.5" hidden="1">
       <c r="A82" s="300">
         <v>80</v>
       </c>
@@ -10820,7 +10829,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="83" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="255">
         <v>81</v>
       </c>
@@ -10858,7 +10867,7 @@
       </c>
       <c r="P83" s="370"/>
     </row>
-    <row r="84" spans="1:16" s="170" customFormat="1">
+    <row r="84" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A84" s="255">
         <v>82</v>
       </c>
@@ -10898,7 +10907,7 @@
       </c>
       <c r="P84" s="370"/>
     </row>
-    <row r="85" spans="1:16" s="80" customFormat="1" ht="27">
+    <row r="85" spans="1:16" s="80" customFormat="1" ht="27" hidden="1">
       <c r="A85" s="255">
         <v>83</v>
       </c>
@@ -10930,7 +10939,7 @@
       <c r="O85" s="340"/>
       <c r="P85" s="344"/>
     </row>
-    <row r="86" spans="1:16" s="193" customFormat="1" ht="148.5">
+    <row r="86" spans="1:16" s="193" customFormat="1" ht="148.5" hidden="1">
       <c r="A86" s="255">
         <v>84</v>
       </c>
@@ -10972,7 +10981,7 @@
       <c r="O86" s="349"/>
       <c r="P86" s="354"/>
     </row>
-    <row r="87" spans="1:16" s="193" customFormat="1" ht="189">
+    <row r="87" spans="1:16" s="193" customFormat="1" ht="189" hidden="1">
       <c r="A87" s="255">
         <v>85</v>
       </c>
@@ -11014,7 +11023,7 @@
       <c r="O87" s="349"/>
       <c r="P87" s="354"/>
     </row>
-    <row r="88" spans="1:16" s="315" customFormat="1" ht="40.5">
+    <row r="88" spans="1:16" s="315" customFormat="1" ht="40.5" hidden="1">
       <c r="A88" s="300">
         <v>86</v>
       </c>
@@ -11056,7 +11065,7 @@
       </c>
       <c r="P88" s="398"/>
     </row>
-    <row r="89" spans="1:16" s="193" customFormat="1">
+    <row r="89" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A89" s="255">
         <v>87</v>
       </c>
@@ -11092,7 +11101,7 @@
       <c r="O89" s="349"/>
       <c r="P89" s="354"/>
     </row>
-    <row r="90" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="90" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A90" s="255">
         <v>88</v>
       </c>
@@ -11132,7 +11141,7 @@
       <c r="O90" s="349"/>
       <c r="P90" s="354"/>
     </row>
-    <row r="91" spans="1:16" s="193" customFormat="1">
+    <row r="91" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A91" s="255">
         <v>89</v>
       </c>
@@ -11170,7 +11179,7 @@
       <c r="O91" s="349"/>
       <c r="P91" s="354"/>
     </row>
-    <row r="92" spans="1:16" s="193" customFormat="1">
+    <row r="92" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A92" s="255">
         <v>90</v>
       </c>
@@ -11208,7 +11217,7 @@
       <c r="O92" s="349"/>
       <c r="P92" s="354"/>
     </row>
-    <row r="93" spans="1:16" s="193" customFormat="1">
+    <row r="93" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A93" s="255">
         <v>91</v>
       </c>
@@ -11246,7 +11255,7 @@
       <c r="O93" s="349"/>
       <c r="P93" s="354"/>
     </row>
-    <row r="94" spans="1:16" s="193" customFormat="1">
+    <row r="94" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A94" s="255">
         <v>92</v>
       </c>
@@ -11284,7 +11293,7 @@
       <c r="O94" s="349"/>
       <c r="P94" s="354"/>
     </row>
-    <row r="95" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="95" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A95" s="255">
         <v>93</v>
       </c>
@@ -11322,7 +11331,7 @@
       <c r="O95" s="349"/>
       <c r="P95" s="354"/>
     </row>
-    <row r="96" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="96" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A96" s="300">
         <v>94</v>
       </c>
@@ -11366,7 +11375,7 @@
       </c>
       <c r="P96" s="398"/>
     </row>
-    <row r="97" spans="1:16" s="216" customFormat="1" ht="27">
+    <row r="97" spans="1:16" s="216" customFormat="1" ht="27" hidden="1">
       <c r="A97" s="255">
         <v>95</v>
       </c>
@@ -11406,7 +11415,7 @@
       </c>
       <c r="P97" s="392"/>
     </row>
-    <row r="98" spans="1:16" s="216" customFormat="1" ht="40.5">
+    <row r="98" spans="1:16" s="216" customFormat="1" ht="40.5" hidden="1">
       <c r="A98" s="255">
         <v>96</v>
       </c>
@@ -11446,7 +11455,7 @@
       </c>
       <c r="P98" s="392"/>
     </row>
-    <row r="99" spans="1:16" s="216" customFormat="1" ht="40.5">
+    <row r="99" spans="1:16" s="216" customFormat="1" ht="40.5" hidden="1">
       <c r="A99" s="255">
         <v>97</v>
       </c>
@@ -11486,7 +11495,7 @@
       </c>
       <c r="P99" s="392"/>
     </row>
-    <row r="100" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="100" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A100" s="255">
         <v>98</v>
       </c>
@@ -11526,7 +11535,7 @@
       <c r="O100" s="359"/>
       <c r="P100" s="370"/>
     </row>
-    <row r="101" spans="1:16" s="193" customFormat="1" ht="54">
+    <row r="101" spans="1:16" s="193" customFormat="1" ht="54" hidden="1">
       <c r="A101" s="255">
         <v>99</v>
       </c>
@@ -11560,7 +11569,7 @@
       <c r="O101" s="349"/>
       <c r="P101" s="354"/>
     </row>
-    <row r="102" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="102" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="255">
         <v>100</v>
       </c>
@@ -11598,7 +11607,7 @@
       </c>
       <c r="P102" s="354"/>
     </row>
-    <row r="103" spans="1:16" s="193" customFormat="1">
+    <row r="103" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A103" s="255">
         <v>101</v>
       </c>
@@ -11636,7 +11645,7 @@
       </c>
       <c r="P103" s="354"/>
     </row>
-    <row r="104" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="104" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="255">
         <v>102</v>
       </c>
@@ -11674,7 +11683,7 @@
       </c>
       <c r="P104" s="354"/>
     </row>
-    <row r="105" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="105" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A105" s="255">
         <v>103</v>
       </c>
@@ -11716,7 +11725,7 @@
       </c>
       <c r="P105" s="354"/>
     </row>
-    <row r="106" spans="1:16" s="170" customFormat="1">
+    <row r="106" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A106" s="255">
         <v>104</v>
       </c>
@@ -11754,7 +11763,7 @@
       </c>
       <c r="P106" s="370"/>
     </row>
-    <row r="107" spans="1:16" s="193" customFormat="1" ht="54">
+    <row r="107" spans="1:16" s="193" customFormat="1" ht="54" hidden="1">
       <c r="A107" s="255">
         <v>105</v>
       </c>
@@ -11796,7 +11805,7 @@
       </c>
       <c r="P107" s="354"/>
     </row>
-    <row r="108" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="108" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A108" s="347">
         <v>106</v>
       </c>
@@ -11842,7 +11851,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="109" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A109" s="255">
         <v>107</v>
       </c>
@@ -11880,7 +11889,7 @@
       </c>
       <c r="P109" s="354"/>
     </row>
-    <row r="110" spans="1:16" s="262" customFormat="1" ht="54">
+    <row r="110" spans="1:16" s="262" customFormat="1" ht="54" hidden="1">
       <c r="A110" s="255">
         <v>108</v>
       </c>
@@ -11924,7 +11933,7 @@
       </c>
       <c r="P110" s="402"/>
     </row>
-    <row r="111" spans="1:16" s="193" customFormat="1" ht="81">
+    <row r="111" spans="1:16" s="193" customFormat="1" ht="81" hidden="1">
       <c r="A111" s="255">
         <v>109</v>
       </c>
@@ -11964,7 +11973,7 @@
       <c r="O111" s="379"/>
       <c r="P111" s="381"/>
     </row>
-    <row r="112" spans="1:16" ht="54">
+    <row r="112" spans="1:16" ht="54" hidden="1">
       <c r="A112" s="292">
         <v>110</v>
       </c>
@@ -12008,7 +12017,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="399" customFormat="1" ht="67.5">
+    <row r="113" spans="1:16" s="399" customFormat="1" ht="67.5" hidden="1">
       <c r="A113" s="347">
         <v>111</v>
       </c>
@@ -12053,7 +12062,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="114" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A114" s="255">
         <v>112</v>
       </c>
@@ -12091,7 +12100,7 @@
       </c>
       <c r="P114" s="354"/>
     </row>
-    <row r="115" spans="1:16" s="193" customFormat="1" ht="81">
+    <row r="115" spans="1:16" s="193" customFormat="1" ht="81" hidden="1">
       <c r="A115" s="255">
         <v>113</v>
       </c>
@@ -12129,7 +12138,7 @@
       </c>
       <c r="P115" s="354"/>
     </row>
-    <row r="116" spans="1:16" s="315" customFormat="1" ht="40.5">
+    <row r="116" spans="1:16" s="315" customFormat="1" ht="40.5" hidden="1">
       <c r="A116" s="300">
         <v>114</v>
       </c>
@@ -12169,7 +12178,7 @@
       </c>
       <c r="P116" s="398"/>
     </row>
-    <row r="117" spans="1:16" s="193" customFormat="1" ht="67.5">
+    <row r="117" spans="1:16" s="193" customFormat="1" ht="67.5" hidden="1">
       <c r="A117" s="255">
         <v>115</v>
       </c>
@@ -12203,7 +12212,7 @@
       <c r="O117" s="349"/>
       <c r="P117" s="354"/>
     </row>
-    <row r="118" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="118" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A118" s="255">
         <v>116</v>
       </c>
@@ -12243,7 +12252,7 @@
       </c>
       <c r="P118" s="354"/>
     </row>
-    <row r="119" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="119" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A119" s="255">
         <v>117</v>
       </c>
@@ -12283,7 +12292,7 @@
       </c>
       <c r="P119" s="354"/>
     </row>
-    <row r="120" spans="1:16" s="193" customFormat="1" ht="94.5">
+    <row r="120" spans="1:16" s="193" customFormat="1" ht="94.5" hidden="1">
       <c r="A120" s="255">
         <v>118</v>
       </c>
@@ -12321,7 +12330,7 @@
       </c>
       <c r="P120" s="354"/>
     </row>
-    <row r="121" spans="1:16" s="193" customFormat="1" ht="121.5">
+    <row r="121" spans="1:16" s="193" customFormat="1" ht="121.5" hidden="1">
       <c r="A121" s="255">
         <v>119</v>
       </c>
@@ -12359,7 +12368,7 @@
       </c>
       <c r="P121" s="354"/>
     </row>
-    <row r="122" spans="1:16" s="193" customFormat="1" ht="54">
+    <row r="122" spans="1:16" s="193" customFormat="1" ht="54" hidden="1">
       <c r="A122" s="255">
         <v>120</v>
       </c>
@@ -12399,7 +12408,7 @@
       </c>
       <c r="P122" s="354"/>
     </row>
-    <row r="123" spans="1:16" s="193" customFormat="1" ht="108">
+    <row r="123" spans="1:16" s="193" customFormat="1" ht="108" hidden="1">
       <c r="A123" s="255">
         <v>121</v>
       </c>
@@ -12437,7 +12446,7 @@
       <c r="O123" s="349"/>
       <c r="P123" s="354"/>
     </row>
-    <row r="124" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="124" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A124" s="255">
         <v>122</v>
       </c>
@@ -12475,7 +12484,7 @@
       </c>
       <c r="P124" s="354"/>
     </row>
-    <row r="125" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="125" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A125" s="255">
         <v>123</v>
       </c>
@@ -12513,7 +12522,7 @@
       </c>
       <c r="P125" s="354"/>
     </row>
-    <row r="126" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="126" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A126" s="255">
         <v>124</v>
       </c>
@@ -12553,7 +12562,7 @@
       <c r="O126" s="349"/>
       <c r="P126" s="354"/>
     </row>
-    <row r="127" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="127" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A127" s="255">
         <v>125</v>
       </c>
@@ -12593,7 +12602,7 @@
       </c>
       <c r="P127" s="354"/>
     </row>
-    <row r="128" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="128" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A128" s="255">
         <v>126</v>
       </c>
@@ -12635,7 +12644,7 @@
       </c>
       <c r="P128" s="354"/>
     </row>
-    <row r="129" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="129" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A129" s="255">
         <v>127</v>
       </c>
@@ -12677,7 +12686,7 @@
       </c>
       <c r="P129" s="354"/>
     </row>
-    <row r="130" spans="1:16" s="193" customFormat="1" ht="81">
+    <row r="130" spans="1:16" s="193" customFormat="1" ht="81" hidden="1">
       <c r="A130" s="255">
         <v>128</v>
       </c>
@@ -12719,7 +12728,7 @@
       </c>
       <c r="P130" s="354"/>
     </row>
-    <row r="131" spans="1:16" s="262" customFormat="1" ht="40.5">
+    <row r="131" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
       <c r="A131" s="234">
         <v>129</v>
       </c>
@@ -12763,7 +12772,7 @@
       </c>
       <c r="P131" s="398"/>
     </row>
-    <row r="132" spans="1:16" s="315" customFormat="1">
+    <row r="132" spans="1:16" s="315" customFormat="1" hidden="1">
       <c r="A132" s="300">
         <v>130</v>
       </c>
@@ -12805,7 +12814,7 @@
       </c>
       <c r="P132" s="398"/>
     </row>
-    <row r="133" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="133" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A133" s="255">
         <v>131</v>
       </c>
@@ -12845,7 +12854,7 @@
       </c>
       <c r="P133" s="354"/>
     </row>
-    <row r="134" spans="1:16" s="262" customFormat="1" ht="54">
+    <row r="134" spans="1:16" s="262" customFormat="1" ht="54" hidden="1">
       <c r="A134" s="255">
         <v>132</v>
       </c>
@@ -12883,7 +12892,7 @@
       </c>
       <c r="P134" s="398"/>
     </row>
-    <row r="135" spans="1:16" s="262" customFormat="1" ht="40.5">
+    <row r="135" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
       <c r="A135" s="255">
         <v>133</v>
       </c>
@@ -12921,7 +12930,7 @@
       </c>
       <c r="P135" s="398"/>
     </row>
-    <row r="136" spans="1:16" s="399" customFormat="1" ht="81">
+    <row r="136" spans="1:16" s="399" customFormat="1" ht="81" hidden="1">
       <c r="A136" s="412">
         <v>134</v>
       </c>
@@ -12967,7 +12976,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="193" customFormat="1" ht="40.5">
+    <row r="137" spans="1:16" s="193" customFormat="1" ht="40.5" hidden="1">
       <c r="A137" s="255">
         <v>135</v>
       </c>
@@ -13005,7 +13014,7 @@
       </c>
       <c r="P137" s="354"/>
     </row>
-    <row r="138" spans="1:16" s="240" customFormat="1" ht="81">
+    <row r="138" spans="1:16" s="240" customFormat="1" ht="81" hidden="1">
       <c r="A138" s="255">
         <v>136</v>
       </c>
@@ -13047,7 +13056,7 @@
       </c>
       <c r="P138" s="354"/>
     </row>
-    <row r="139" spans="1:16" s="193" customFormat="1">
+    <row r="139" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A139" s="255">
         <v>137</v>
       </c>
@@ -13089,7 +13098,7 @@
       </c>
       <c r="P139" s="354"/>
     </row>
-    <row r="140" spans="1:16" s="240" customFormat="1" ht="54">
+    <row r="140" spans="1:16" s="240" customFormat="1" ht="54" hidden="1">
       <c r="A140" s="255">
         <v>138</v>
       </c>
@@ -13129,7 +13138,7 @@
       </c>
       <c r="P140" s="354"/>
     </row>
-    <row r="141" spans="1:16" s="248" customFormat="1" ht="81">
+    <row r="141" spans="1:16" s="248" customFormat="1" ht="81" hidden="1">
       <c r="A141" s="255">
         <v>139</v>
       </c>
@@ -13173,7 +13182,7 @@
       </c>
       <c r="P141" s="370"/>
     </row>
-    <row r="142" spans="1:16" s="248" customFormat="1" ht="81">
+    <row r="142" spans="1:16" s="248" customFormat="1" ht="81" hidden="1">
       <c r="A142" s="255">
         <v>140</v>
       </c>
@@ -13211,7 +13220,7 @@
       </c>
       <c r="P142" s="370"/>
     </row>
-    <row r="143" spans="1:16" s="193" customFormat="1">
+    <row r="143" spans="1:16" s="193" customFormat="1" hidden="1">
       <c r="A143" s="255">
         <v>141</v>
       </c>
@@ -13245,7 +13254,7 @@
       <c r="O143" s="355"/>
       <c r="P143" s="354"/>
     </row>
-    <row r="144" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="144" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A144" s="255">
         <v>142</v>
       </c>
@@ -13279,7 +13288,7 @@
       <c r="O144" s="355"/>
       <c r="P144" s="354"/>
     </row>
-    <row r="145" spans="1:16" s="193" customFormat="1" ht="27">
+    <row r="145" spans="1:16" s="193" customFormat="1" ht="27" hidden="1">
       <c r="A145" s="255">
         <v>143</v>
       </c>
@@ -13313,7 +13322,7 @@
       <c r="O145" s="355"/>
       <c r="P145" s="354"/>
     </row>
-    <row r="146" spans="1:16" s="315" customFormat="1" ht="54">
+    <row r="146" spans="1:16" s="315" customFormat="1" ht="54" hidden="1">
       <c r="A146" s="300">
         <v>144</v>
       </c>
@@ -13355,7 +13364,7 @@
       </c>
       <c r="P146" s="398"/>
     </row>
-    <row r="147" spans="1:16" s="315" customFormat="1">
+    <row r="147" spans="1:16" s="315" customFormat="1" hidden="1">
       <c r="A147" s="300">
         <v>145</v>
       </c>
@@ -13395,7 +13404,7 @@
       </c>
       <c r="P147" s="398"/>
     </row>
-    <row r="148" spans="1:16" s="216" customFormat="1" ht="40.5">
+    <row r="148" spans="1:16" s="216" customFormat="1" ht="40.5" hidden="1">
       <c r="A148" s="255">
         <v>146</v>
       </c>
@@ -13437,7 +13446,7 @@
       </c>
       <c r="P148" s="392"/>
     </row>
-    <row r="149" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="149" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A149" s="287">
         <v>147</v>
       </c>
@@ -13479,7 +13488,7 @@
       </c>
       <c r="P149" s="370"/>
     </row>
-    <row r="150" spans="1:16" s="177" customFormat="1" ht="40.5">
+    <row r="150" spans="1:16" s="177" customFormat="1" ht="40.5" hidden="1">
       <c r="A150" s="255">
         <v>148</v>
       </c>
@@ -13519,7 +13528,7 @@
       </c>
       <c r="P150" s="386"/>
     </row>
-    <row r="151" spans="1:16" s="248" customFormat="1">
+    <row r="151" spans="1:16" s="248" customFormat="1" hidden="1">
       <c r="A151" s="255">
         <v>149</v>
       </c>
@@ -13561,7 +13570,7 @@
       </c>
       <c r="P151" s="370"/>
     </row>
-    <row r="152" spans="1:16" s="216" customFormat="1" ht="27">
+    <row r="152" spans="1:16" s="216" customFormat="1" ht="27" hidden="1">
       <c r="A152" s="255">
         <v>150</v>
       </c>
@@ -13605,7 +13614,7 @@
       </c>
       <c r="P152" s="392"/>
     </row>
-    <row r="153" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="153" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A153" s="347">
         <v>151</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="216" customFormat="1" ht="27">
+    <row r="154" spans="1:16" s="216" customFormat="1" ht="27" hidden="1">
       <c r="A154" s="255">
         <v>152</v>
       </c>
@@ -13695,7 +13704,7 @@
       </c>
       <c r="P154" s="392"/>
     </row>
-    <row r="155" spans="1:16" s="216" customFormat="1" ht="27">
+    <row r="155" spans="1:16" s="216" customFormat="1" ht="27" hidden="1">
       <c r="A155" s="255">
         <v>153</v>
       </c>
@@ -13737,7 +13746,7 @@
       </c>
       <c r="P155" s="392"/>
     </row>
-    <row r="156" spans="1:16" s="248" customFormat="1">
+    <row r="156" spans="1:16" s="248" customFormat="1" hidden="1">
       <c r="A156" s="255">
         <v>154</v>
       </c>
@@ -13779,7 +13788,7 @@
       </c>
       <c r="P156" s="370"/>
     </row>
-    <row r="157" spans="1:16" s="216" customFormat="1" ht="54">
+    <row r="157" spans="1:16" s="216" customFormat="1" ht="54" hidden="1">
       <c r="A157" s="255">
         <v>155</v>
       </c>
@@ -13821,7 +13830,7 @@
       </c>
       <c r="P157" s="392"/>
     </row>
-    <row r="158" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="158" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A158" s="255">
         <v>156</v>
       </c>
@@ -13863,7 +13872,7 @@
       </c>
       <c r="P158" s="386"/>
     </row>
-    <row r="159" spans="1:16" s="216" customFormat="1" ht="27">
+    <row r="159" spans="1:16" s="216" customFormat="1" ht="27" hidden="1">
       <c r="A159" s="255">
         <v>157</v>
       </c>
@@ -13907,7 +13916,7 @@
       </c>
       <c r="P159" s="392"/>
     </row>
-    <row r="160" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="160" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A160" s="255">
         <v>158</v>
       </c>
@@ -13949,7 +13958,7 @@
       </c>
       <c r="P160" s="370"/>
     </row>
-    <row r="161" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="161" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A161" s="255">
         <v>159</v>
       </c>
@@ -13989,7 +13998,7 @@
       </c>
       <c r="P161" s="370"/>
     </row>
-    <row r="162" spans="1:16" s="248" customFormat="1">
+    <row r="162" spans="1:16" s="248" customFormat="1" hidden="1">
       <c r="A162" s="255">
         <v>160</v>
       </c>
@@ -14031,7 +14040,7 @@
       </c>
       <c r="P162" s="370"/>
     </row>
-    <row r="163" spans="1:16" s="216" customFormat="1" ht="27">
+    <row r="163" spans="1:16" s="216" customFormat="1" ht="27" hidden="1">
       <c r="A163" s="255">
         <v>161</v>
       </c>
@@ -14075,7 +14084,7 @@
       </c>
       <c r="P163" s="392"/>
     </row>
-    <row r="164" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="164" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A164" s="300">
         <v>162</v>
       </c>
@@ -14119,7 +14128,7 @@
       </c>
       <c r="P164" s="398"/>
     </row>
-    <row r="165" spans="1:16" s="240" customFormat="1" ht="27">
+    <row r="165" spans="1:16" s="240" customFormat="1" ht="27" hidden="1">
       <c r="A165" s="234">
         <v>163</v>
       </c>
@@ -14161,7 +14170,7 @@
       </c>
       <c r="P165" s="354"/>
     </row>
-    <row r="166" spans="1:16" s="262" customFormat="1">
+    <row r="166" spans="1:16" s="262" customFormat="1" hidden="1">
       <c r="A166" s="255">
         <v>164</v>
       </c>
@@ -14205,7 +14214,7 @@
       </c>
       <c r="P166" s="398"/>
     </row>
-    <row r="167" spans="1:16" s="240" customFormat="1" ht="27">
+    <row r="167" spans="1:16" s="240" customFormat="1" ht="27" hidden="1">
       <c r="A167" s="255">
         <v>165</v>
       </c>
@@ -14247,7 +14256,7 @@
       </c>
       <c r="P167" s="354"/>
     </row>
-    <row r="168" spans="1:16" s="185" customFormat="1" ht="54">
+    <row r="168" spans="1:16" s="185" customFormat="1" ht="54" hidden="1">
       <c r="A168" s="255">
         <v>166</v>
       </c>
@@ -14287,7 +14296,7 @@
       </c>
       <c r="P168" s="344"/>
     </row>
-    <row r="169" spans="1:16" s="185" customFormat="1" ht="67.5">
+    <row r="169" spans="1:16" s="185" customFormat="1" ht="67.5" hidden="1">
       <c r="A169" s="255">
         <v>167</v>
       </c>
@@ -14327,7 +14336,7 @@
       </c>
       <c r="P169" s="344"/>
     </row>
-    <row r="170" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="170" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A170" s="255">
         <v>168</v>
       </c>
@@ -14369,7 +14378,7 @@
       </c>
       <c r="P170" s="370"/>
     </row>
-    <row r="171" spans="1:16" s="240" customFormat="1" ht="54">
+    <row r="171" spans="1:16" s="240" customFormat="1" ht="54" hidden="1">
       <c r="A171" s="234">
         <v>169</v>
       </c>
@@ -14411,7 +14420,7 @@
       </c>
       <c r="P171" s="355"/>
     </row>
-    <row r="172" spans="1:16" s="216" customFormat="1" ht="40.5">
+    <row r="172" spans="1:16" s="216" customFormat="1" ht="40.5" hidden="1">
       <c r="A172" s="255">
         <v>170</v>
       </c>
@@ -14453,7 +14462,7 @@
       </c>
       <c r="P172" s="391"/>
     </row>
-    <row r="173" spans="1:16" s="216" customFormat="1" ht="94.5">
+    <row r="173" spans="1:16" s="216" customFormat="1" ht="94.5" hidden="1">
       <c r="A173" s="255">
         <v>171</v>
       </c>
@@ -14497,7 +14506,7 @@
       </c>
       <c r="P173" s="391"/>
     </row>
-    <row r="174" spans="1:16" s="248" customFormat="1" ht="27">
+    <row r="174" spans="1:16" s="248" customFormat="1" ht="27" hidden="1">
       <c r="A174" s="255">
         <v>172</v>
       </c>
@@ -14537,7 +14546,7 @@
       </c>
       <c r="P174" s="362"/>
     </row>
-    <row r="175" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="175" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A175" s="255">
         <v>173</v>
       </c>
@@ -14571,7 +14580,7 @@
       <c r="O175" s="393"/>
       <c r="P175" s="330"/>
     </row>
-    <row r="176" spans="1:16" s="262" customFormat="1" ht="54">
+    <row r="176" spans="1:16" s="262" customFormat="1" ht="54" hidden="1">
       <c r="A176" s="234">
         <v>174</v>
       </c>
@@ -14613,7 +14622,7 @@
       </c>
       <c r="P176" s="355"/>
     </row>
-    <row r="177" spans="1:16" s="315" customFormat="1" ht="94.5">
+    <row r="177" spans="1:16" s="315" customFormat="1" ht="94.5" hidden="1">
       <c r="A177" s="318">
         <v>175</v>
       </c>
@@ -14655,7 +14664,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="315" customFormat="1" ht="108">
+    <row r="178" spans="1:16" s="315" customFormat="1" ht="108" hidden="1">
       <c r="A178" s="300">
         <v>176</v>
       </c>
@@ -14695,7 +14704,7 @@
       </c>
       <c r="P178" s="355"/>
     </row>
-    <row r="179" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="179" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A179" s="300">
         <v>177</v>
       </c>
@@ -14735,7 +14744,7 @@
       </c>
       <c r="P179" s="355"/>
     </row>
-    <row r="180" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="180" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A180" s="300">
         <v>178</v>
       </c>
@@ -14775,7 +14784,7 @@
       </c>
       <c r="P180" s="355"/>
     </row>
-    <row r="181" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="181" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A181" s="347">
         <v>179</v>
       </c>
@@ -14819,7 +14828,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="182" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="182" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A182" s="347">
         <v>180</v>
       </c>
@@ -14863,7 +14872,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="183" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="183" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A183" s="300">
         <v>181</v>
       </c>
@@ -14947,7 +14956,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="185" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A185" s="318">
         <v>183</v>
       </c>
@@ -14991,7 +15000,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="186" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A186" s="318">
         <v>184</v>
       </c>
@@ -15037,7 +15046,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="315" customFormat="1" ht="40.5">
+    <row r="187" spans="1:16" s="315" customFormat="1" ht="40.5" hidden="1">
       <c r="A187" s="318">
         <v>185</v>
       </c>
@@ -15081,7 +15090,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:16" s="322" customFormat="1" ht="81">
+    <row r="188" spans="1:16" s="322" customFormat="1" ht="81" hidden="1">
       <c r="A188" s="323">
         <v>186</v>
       </c>
@@ -15127,7 +15136,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="315" customFormat="1" ht="94.5">
+    <row r="189" spans="1:16" s="315" customFormat="1" ht="94.5" hidden="1">
       <c r="A189" s="318">
         <v>187</v>
       </c>
@@ -15173,7 +15182,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="190" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A190" s="318">
         <v>188</v>
       </c>
@@ -15219,7 +15228,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="315" customFormat="1" ht="40.5">
+    <row r="191" spans="1:16" s="315" customFormat="1" ht="40.5" hidden="1">
       <c r="A191" s="318">
         <v>189</v>
       </c>
@@ -15265,7 +15274,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="27">
+    <row r="192" spans="1:16" ht="27" hidden="1">
       <c r="A192" s="255">
         <v>190</v>
       </c>
@@ -15309,7 +15318,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="193" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A193" s="300">
         <v>191</v>
       </c>
@@ -15355,7 +15364,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="194" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A194" s="318">
         <v>192</v>
       </c>
@@ -15401,7 +15410,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="195" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A195" s="318">
         <v>193</v>
       </c>
@@ -15447,7 +15456,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="315" customFormat="1">
+    <row r="196" spans="1:16" s="315" customFormat="1" hidden="1">
       <c r="A196" s="318">
         <v>194</v>
       </c>
@@ -15491,7 +15500,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="197" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A197" s="318">
         <v>195</v>
       </c>
@@ -15537,7 +15546,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="262" customFormat="1" ht="54">
+    <row r="198" spans="1:16" s="262" customFormat="1" ht="54" hidden="1">
       <c r="A198" s="234">
         <v>196</v>
       </c>
@@ -15581,7 +15590,7 @@
       </c>
       <c r="P198" s="355"/>
     </row>
-    <row r="199" spans="1:16" s="315" customFormat="1" ht="148.5">
+    <row r="199" spans="1:16" s="315" customFormat="1" ht="148.5" hidden="1">
       <c r="A199" s="318">
         <v>197</v>
       </c>
@@ -15627,7 +15636,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="200" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="200" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A200" s="347">
         <v>198</v>
       </c>
@@ -15673,7 +15682,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="315" customFormat="1">
+    <row r="201" spans="1:16" s="315" customFormat="1" hidden="1">
       <c r="A201" s="300">
         <v>199</v>
       </c>
@@ -15717,7 +15726,7 @@
       </c>
       <c r="P201" s="355"/>
     </row>
-    <row r="202" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="202" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A202" s="234">
         <v>200</v>
       </c>
@@ -15759,7 +15768,7 @@
       </c>
       <c r="P202" s="355"/>
     </row>
-    <row r="203" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="203" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A203" s="234">
         <v>201</v>
       </c>
@@ -15801,7 +15810,7 @@
       </c>
       <c r="P203" s="355"/>
     </row>
-    <row r="204" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="204" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A204" s="300">
         <v>202</v>
       </c>
@@ -15845,7 +15854,7 @@
       </c>
       <c r="P204" s="355"/>
     </row>
-    <row r="205" spans="1:16" s="315" customFormat="1">
+    <row r="205" spans="1:16" s="315" customFormat="1" hidden="1">
       <c r="A205" s="300">
         <v>203</v>
       </c>
@@ -15887,7 +15896,7 @@
       </c>
       <c r="P205" s="355"/>
     </row>
-    <row r="206" spans="1:16" s="399" customFormat="1" ht="67.5">
+    <row r="206" spans="1:16" s="399" customFormat="1" ht="67.5" hidden="1">
       <c r="A206" s="347">
         <v>204</v>
       </c>
@@ -15930,7 +15939,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="399" customFormat="1" ht="40.5">
+    <row r="207" spans="1:16" s="399" customFormat="1" ht="40.5" hidden="1">
       <c r="A207" s="412">
         <v>205</v>
       </c>
@@ -15974,7 +15983,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="208" spans="1:16" s="399" customFormat="1" ht="148.5">
+    <row r="208" spans="1:16" s="399" customFormat="1" ht="148.5" hidden="1">
       <c r="A208" s="412">
         <v>206</v>
       </c>
@@ -16016,7 +16025,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="209" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A209" s="412">
         <v>207</v>
       </c>
@@ -16056,7 +16065,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="210" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="210" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A210" s="412">
         <v>208</v>
       </c>
@@ -16096,7 +16105,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="211" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="211" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A211" s="412">
         <v>209</v>
       </c>
@@ -16136,7 +16145,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="212" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="212" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A212" s="412">
         <v>210</v>
       </c>
@@ -16176,7 +16185,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="27">
+    <row r="213" spans="1:16" ht="27" hidden="1">
       <c r="A213" s="292">
         <v>211</v>
       </c>
@@ -16220,7 +16229,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="214" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A214" s="318">
         <v>212</v>
       </c>
@@ -16262,7 +16271,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="27">
+    <row r="215" spans="1:16" ht="27" hidden="1">
       <c r="A215" s="292">
         <v>213</v>
       </c>
@@ -16304,7 +16313,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="315" customFormat="1" ht="40.5">
+    <row r="216" spans="1:16" s="315" customFormat="1" ht="40.5" hidden="1">
       <c r="A216" s="318">
         <v>214</v>
       </c>
@@ -16346,7 +16355,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="217" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A217" s="318">
         <v>215</v>
       </c>
@@ -16388,7 +16397,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="218" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A218" s="300">
         <v>216</v>
       </c>
@@ -16430,7 +16439,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="27">
+    <row r="219" spans="1:16" ht="27" hidden="1">
       <c r="A219" s="162">
         <v>217</v>
       </c>
@@ -16472,7 +16481,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="315" customFormat="1" ht="27">
+    <row r="220" spans="1:16" s="315" customFormat="1" ht="27" hidden="1">
       <c r="A220" s="300">
         <v>218</v>
       </c>
@@ -16514,7 +16523,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="27">
+    <row r="221" spans="1:16" ht="27" hidden="1">
       <c r="A221" s="162">
         <v>219</v>
       </c>
@@ -16556,7 +16565,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="222" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A222" s="412">
         <v>220</v>
       </c>
@@ -16598,7 +16607,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="399" customFormat="1" ht="67.5">
+    <row r="223" spans="1:16" s="399" customFormat="1" ht="67.5" hidden="1">
       <c r="A223" s="412">
         <v>221</v>
       </c>
@@ -16638,7 +16647,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="224" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A224" s="412">
         <v>222</v>
       </c>
@@ -16754,7 +16763,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="227" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="227" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A227" s="412">
         <v>225</v>
       </c>
@@ -16796,7 +16805,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="228" spans="1:16" s="399" customFormat="1" ht="108">
+    <row r="228" spans="1:16" s="399" customFormat="1" ht="108" hidden="1">
       <c r="A228" s="412">
         <v>226</v>
       </c>
@@ -16840,7 +16849,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="229" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="229" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A229" s="412">
         <v>227</v>
       </c>
@@ -16884,7 +16893,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="230" spans="1:16" s="399" customFormat="1" ht="40.5">
+    <row r="230" spans="1:16" s="399" customFormat="1" ht="40.5" hidden="1">
       <c r="A230" s="412">
         <v>228</v>
       </c>
@@ -16964,7 +16973,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="232" spans="1:16" s="399" customFormat="1" ht="54">
+    <row r="232" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
       <c r="A232" s="412">
         <v>230</v>
       </c>
@@ -17008,7 +17017,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="233" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="233" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A233" s="412">
         <v>231</v>
       </c>
@@ -17050,7 +17059,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="234" spans="1:16" s="399" customFormat="1" ht="67.5">
+    <row r="234" spans="1:16" s="399" customFormat="1" ht="67.5" hidden="1">
       <c r="A234" s="412">
         <v>232</v>
       </c>
@@ -17114,6 +17123,9 @@
       <c r="G235" s="328" t="s">
         <v>457</v>
       </c>
+      <c r="P235" s="331" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="236" spans="1:16" s="331" customFormat="1" ht="27">
       <c r="A236" s="410">
@@ -17142,6 +17154,9 @@
       </c>
       <c r="L236" s="342"/>
       <c r="O236" s="390"/>
+      <c r="P236" s="331" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="237" spans="1:16" s="331" customFormat="1" ht="27">
       <c r="A237" s="410">
@@ -17170,8 +17185,11 @@
       </c>
       <c r="L237" s="342"/>
       <c r="O237" s="390"/>
-    </row>
-    <row r="238" spans="1:16" s="399" customFormat="1" ht="40.5">
+      <c r="P237" s="331" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" s="399" customFormat="1" ht="40.5" hidden="1">
       <c r="A238" s="412">
         <v>236</v>
       </c>
@@ -17204,7 +17222,7 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="239" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="239" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A239" s="412">
         <v>237</v>
       </c>
@@ -17237,7 +17255,7 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="240" spans="1:16" s="399" customFormat="1" ht="27">
+    <row r="240" spans="1:16" s="399" customFormat="1" ht="27" hidden="1">
       <c r="A240" s="412">
         <v>238</v>
       </c>
@@ -17270,7 +17288,7 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="331" customFormat="1" ht="40.5">
+    <row r="241" spans="1:16" s="331" customFormat="1" ht="40.5">
       <c r="A241" s="410">
         <v>239</v>
       </c>
@@ -17295,8 +17313,11 @@
       <c r="H241" s="342" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" s="331" customFormat="1" ht="27">
+      <c r="P241" s="331" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" s="331" customFormat="1" ht="27">
       <c r="A242" s="410">
         <v>240</v>
       </c>
@@ -17321,8 +17342,11 @@
       <c r="H242" s="342" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" s="331" customFormat="1">
+      <c r="P242" s="331" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" s="331" customFormat="1">
       <c r="A243" s="410">
         <v>241</v>
       </c>
@@ -17347,8 +17371,11 @@
       <c r="H243" s="342" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" ht="40.5">
+      <c r="P243" s="331" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" ht="40.5">
       <c r="A244" s="410">
         <v>242</v>
       </c>
@@ -17370,8 +17397,11 @@
       <c r="G244" s="371" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" s="331" customFormat="1">
+      <c r="P244" s="331" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" s="331" customFormat="1">
       <c r="A245" s="410">
         <v>243</v>
       </c>
@@ -17396,9 +17426,18 @@
       <c r="H245" s="342" t="s">
         <v>281</v>
       </c>
+      <c r="P245" s="331" t="s">
+        <v>620</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y235"/>
+  <autoFilter ref="A2:Y245">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/测试单-电子书_txt-word_161023.xlsx
+++ b/测试单-电子书_txt-word_161023.xlsx
@@ -4066,9 +4066,6 @@
     <t>10月13日的版本已经从反显句开始读的啊，只不过因为这个反显句跨屏了，所以按【5】【OK】的时候会先翻到反显开始的屏。</t>
   </si>
   <si>
-    <t>添加重复但不区分文件和文件夹</t>
-  </si>
-  <si>
     <t>使用了后鼎的公共提示框，后鼎修改一下。</t>
   </si>
   <si>
@@ -4650,6 +4647,10 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了添加到收藏的逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7419,7 +7420,7 @@
         <v>369</v>
       </c>
       <c r="G11" s="329" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="276" customFormat="1">
@@ -7439,7 +7440,7 @@
         <v>390</v>
       </c>
       <c r="G12" s="329" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="276" customFormat="1">
@@ -7475,7 +7476,7 @@
         <v>42656</v>
       </c>
       <c r="F14" s="373" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="329" customFormat="1">
@@ -7492,7 +7493,7 @@
         <v>42666</v>
       </c>
       <c r="F15" s="373" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7543,33 +7544,33 @@
     </row>
     <row r="27" spans="2:6">
       <c r="F27" s="329" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="F28" s="329" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="E29" s="329" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F29" s="329" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="94.5">
       <c r="E30" s="329" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F30" s="420" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="F31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -7584,8 +7585,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N246" sqref="N246"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="M235" sqref="M235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7604,7 +7605,8 @@
     <col min="12" max="12" width="6.125" style="223" customWidth="1"/>
     <col min="13" max="13" width="9" style="223"/>
     <col min="14" max="14" width="35.75" style="223" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="223"/>
+    <col min="15" max="15" width="9.25" style="223" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="223"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7969,13 +7971,13 @@
         <v>252</v>
       </c>
       <c r="G10" s="368" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H10" s="342" t="s">
         <v>281</v>
       </c>
       <c r="I10" s="342" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J10" s="345"/>
       <c r="K10" s="345"/>
@@ -7984,7 +7986,7 @@
       </c>
       <c r="M10" s="342"/>
       <c r="N10" s="342" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O10" s="346">
         <v>42660</v>
@@ -8392,14 +8394,14 @@
         <v>42555</v>
       </c>
       <c r="F21" s="372" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G21" s="351" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H21" s="352"/>
       <c r="I21" s="352" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J21" s="397"/>
       <c r="K21" s="396">
@@ -11825,13 +11827,13 @@
         <v>227</v>
       </c>
       <c r="G108" s="351" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H108" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I108" s="352" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J108" s="397"/>
       <c r="K108" s="396">
@@ -11993,13 +11995,13 @@
         <v>415</v>
       </c>
       <c r="G112" s="341" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H112" s="342" t="s">
         <v>281</v>
       </c>
       <c r="I112" s="342" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J112" s="345"/>
       <c r="K112" s="345"/>
@@ -12034,16 +12036,16 @@
         <v>42616</v>
       </c>
       <c r="F113" s="372" t="s">
+        <v>568</v>
+      </c>
+      <c r="G113" s="351" t="s">
         <v>569</v>
-      </c>
-      <c r="G113" s="351" t="s">
-        <v>570</v>
       </c>
       <c r="H113" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I113" s="399" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K113" s="411">
         <v>42666</v>
@@ -12950,13 +12952,13 @@
         <v>321</v>
       </c>
       <c r="G136" s="374" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H136" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I136" s="352" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J136" s="397"/>
       <c r="K136" s="396">
@@ -12967,7 +12969,7 @@
       </c>
       <c r="M136" s="352"/>
       <c r="N136" s="352" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O136" s="396">
         <v>42666</v>
@@ -13634,13 +13636,13 @@
         <v>174</v>
       </c>
       <c r="G153" s="351" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H153" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I153" s="352" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J153" s="397"/>
       <c r="K153" s="396">
@@ -13651,7 +13653,7 @@
       </c>
       <c r="M153" s="352"/>
       <c r="N153" s="352" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O153" s="396">
         <v>42657</v>
@@ -14804,11 +14806,11 @@
         <v>357</v>
       </c>
       <c r="G181" s="408" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H181" s="352"/>
       <c r="I181" s="352" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J181" s="397"/>
       <c r="K181" s="396">
@@ -14848,11 +14850,11 @@
         <v>358</v>
       </c>
       <c r="G182" s="408" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H182" s="352"/>
       <c r="I182" s="352" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J182" s="397"/>
       <c r="K182" s="396">
@@ -14934,11 +14936,11 @@
         <v>293</v>
       </c>
       <c r="G184" s="371" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H184" s="342"/>
       <c r="I184" s="330" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J184" s="330"/>
       <c r="K184" s="330"/>
@@ -14947,10 +14949,10 @@
       </c>
       <c r="M184" s="330"/>
       <c r="N184" s="331" t="s">
-        <v>535</v>
+        <v>621</v>
       </c>
       <c r="O184" s="390">
-        <v>42664</v>
+        <v>42667</v>
       </c>
       <c r="P184" s="331" t="s">
         <v>393</v>
@@ -14991,7 +14993,7 @@
       </c>
       <c r="M185" s="399"/>
       <c r="N185" s="399" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O185" s="411">
         <v>42654</v>
@@ -15037,7 +15039,7 @@
       </c>
       <c r="M186" s="399"/>
       <c r="N186" s="399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O186" s="411">
         <v>42654</v>
@@ -15127,7 +15129,7 @@
       </c>
       <c r="M188" s="417"/>
       <c r="N188" s="417" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O188" s="418">
         <v>42654</v>
@@ -15173,7 +15175,7 @@
       </c>
       <c r="M189" s="399"/>
       <c r="N189" s="399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O189" s="411">
         <v>42654</v>
@@ -15219,7 +15221,7 @@
       </c>
       <c r="M190" s="399"/>
       <c r="N190" s="399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O190" s="411">
         <v>42654</v>
@@ -15265,7 +15267,7 @@
       </c>
       <c r="M191" s="399"/>
       <c r="N191" s="399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O191" s="411">
         <v>42654</v>
@@ -15294,13 +15296,13 @@
         <v>311</v>
       </c>
       <c r="G192" s="395" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H192" s="342" t="s">
         <v>281</v>
       </c>
       <c r="I192" s="330" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J192" s="330"/>
       <c r="K192" s="330"/>
@@ -15309,7 +15311,7 @@
       </c>
       <c r="M192" s="330"/>
       <c r="N192" s="331" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O192" s="390">
         <v>42657</v>
@@ -15401,7 +15403,7 @@
       </c>
       <c r="M194" s="399"/>
       <c r="N194" s="399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O194" s="411">
         <v>42654</v>
@@ -15447,7 +15449,7 @@
       </c>
       <c r="M195" s="399"/>
       <c r="N195" s="399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O195" s="411">
         <v>42654</v>
@@ -15537,7 +15539,7 @@
       </c>
       <c r="M197" s="399"/>
       <c r="N197" s="399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O197" s="411">
         <v>42654</v>
@@ -15583,7 +15585,7 @@
       </c>
       <c r="M198" s="355"/>
       <c r="N198" s="355" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O198" s="384">
         <v>42651</v>
@@ -15627,7 +15629,7 @@
       </c>
       <c r="M199" s="399"/>
       <c r="N199" s="399" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O199" s="411">
         <v>42655</v>
@@ -15662,7 +15664,7 @@
         <v>281</v>
       </c>
       <c r="I200" s="355" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J200" s="355"/>
       <c r="K200" s="384">
@@ -15673,7 +15675,7 @@
       </c>
       <c r="M200" s="355"/>
       <c r="N200" s="399" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O200" s="411">
         <v>42657</v>
@@ -15761,7 +15763,7 @@
       </c>
       <c r="M202" s="355"/>
       <c r="N202" s="355" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O202" s="384">
         <v>42651</v>
@@ -15847,7 +15849,7 @@
       </c>
       <c r="M204" s="355"/>
       <c r="N204" s="355" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O204" s="384">
         <v>42653</v>
@@ -15916,13 +15918,13 @@
         <v>343</v>
       </c>
       <c r="G206" s="408" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H206" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I206" s="355" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J206" s="355"/>
       <c r="K206" s="384">
@@ -15959,11 +15961,11 @@
         <v>349</v>
       </c>
       <c r="G207" s="408" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H207" s="352"/>
       <c r="I207" s="355" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J207" s="355"/>
       <c r="K207" s="384">
@@ -15974,7 +15976,7 @@
       </c>
       <c r="M207" s="419"/>
       <c r="N207" s="399" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O207" s="411">
         <v>42655</v>
@@ -16003,13 +16005,13 @@
         <v>353</v>
       </c>
       <c r="G208" s="409" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H208" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I208" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J208" s="419"/>
       <c r="K208" s="384">
@@ -16049,7 +16051,7 @@
       </c>
       <c r="H209" s="352"/>
       <c r="I209" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J209" s="419"/>
       <c r="K209" s="384">
@@ -16089,7 +16091,7 @@
       </c>
       <c r="H210" s="352"/>
       <c r="I210" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J210" s="419"/>
       <c r="K210" s="384">
@@ -16129,7 +16131,7 @@
       </c>
       <c r="H211" s="352"/>
       <c r="I211" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J211" s="419"/>
       <c r="K211" s="384">
@@ -16169,7 +16171,7 @@
       </c>
       <c r="H212" s="352"/>
       <c r="I212" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J212" s="419"/>
       <c r="K212" s="384">
@@ -16220,7 +16222,7 @@
       </c>
       <c r="M213" s="329"/>
       <c r="N213" s="331" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O213" s="390">
         <v>42655</v>
@@ -16304,7 +16306,7 @@
       </c>
       <c r="M215" s="329"/>
       <c r="N215" s="331" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O215" s="390">
         <v>42655</v>
@@ -16432,7 +16434,7 @@
       </c>
       <c r="M218" s="399"/>
       <c r="N218" s="399" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O218" s="399"/>
       <c r="P218" s="399" t="s">
@@ -16472,7 +16474,7 @@
       </c>
       <c r="M219" s="329"/>
       <c r="N219" s="331" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O219" s="390">
         <v>42656</v>
@@ -16543,7 +16545,7 @@
         <v>398</v>
       </c>
       <c r="G221" s="400" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H221" s="342" t="s">
         <v>281</v>
@@ -16558,7 +16560,7 @@
       </c>
       <c r="M221" s="329"/>
       <c r="N221" s="331" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O221" s="331"/>
       <c r="P221" s="331" t="s">
@@ -16585,13 +16587,13 @@
         <v>406</v>
       </c>
       <c r="G222" s="409" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H222" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I222" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J222" s="419"/>
       <c r="K222" s="384">
@@ -16627,11 +16629,11 @@
         <v>261</v>
       </c>
       <c r="G223" s="408" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H223" s="352"/>
       <c r="I223" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J223" s="419"/>
       <c r="K223" s="384">
@@ -16664,16 +16666,16 @@
         <v>42656</v>
       </c>
       <c r="F224" s="372" t="s">
+        <v>599</v>
+      </c>
+      <c r="G224" s="408" t="s">
         <v>600</v>
-      </c>
-      <c r="G224" s="408" t="s">
-        <v>601</v>
       </c>
       <c r="H224" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I224" s="399" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K224" s="411">
         <v>42666</v>
@@ -16682,7 +16684,7 @@
         <v>52</v>
       </c>
       <c r="N224" s="399" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O224" s="411">
         <v>42657</v>
@@ -16724,7 +16726,7 @@
       <c r="N225" s="331"/>
       <c r="O225" s="390"/>
       <c r="P225" s="331" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="297" customFormat="1">
@@ -16783,13 +16785,13 @@
         <v>261</v>
       </c>
       <c r="G227" s="408" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H227" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I227" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J227" s="419"/>
       <c r="K227" s="384">
@@ -16825,7 +16827,7 @@
         <v>419</v>
       </c>
       <c r="G228" s="408" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H228" s="352" t="s">
         <v>281</v>
@@ -16840,7 +16842,7 @@
         <v>52</v>
       </c>
       <c r="N228" s="399" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O228" s="411">
         <v>42664</v>
@@ -16884,7 +16886,7 @@
         <v>285</v>
       </c>
       <c r="N229" s="399" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O229" s="411">
         <v>42664</v>
@@ -16928,7 +16930,7 @@
         <v>285</v>
       </c>
       <c r="N230" s="399" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O230" s="411">
         <v>42664</v>
@@ -16970,7 +16972,7 @@
       <c r="N231" s="331"/>
       <c r="O231" s="390"/>
       <c r="P231" s="331" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="399" customFormat="1" ht="54" hidden="1">
@@ -16993,7 +16995,7 @@
         <v>417</v>
       </c>
       <c r="G232" s="408" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H232" s="352" t="s">
         <v>281</v>
@@ -17008,7 +17010,7 @@
         <v>285</v>
       </c>
       <c r="N232" s="399" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O232" s="411">
         <v>42663</v>
@@ -17037,13 +17039,13 @@
         <v>419</v>
       </c>
       <c r="G233" s="408" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H233" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I233" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J233" s="419"/>
       <c r="K233" s="384">
@@ -17079,13 +17081,13 @@
         <v>238</v>
       </c>
       <c r="G234" s="408" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H234" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I234" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J234" s="419"/>
       <c r="K234" s="384">
@@ -17124,7 +17126,7 @@
         <v>457</v>
       </c>
       <c r="P235" s="331" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="236" spans="1:16" s="331" customFormat="1" ht="27">
@@ -17144,10 +17146,10 @@
         <v>42666</v>
       </c>
       <c r="F236" s="369" t="s">
+        <v>557</v>
+      </c>
+      <c r="G236" s="395" t="s">
         <v>558</v>
-      </c>
-      <c r="G236" s="395" t="s">
-        <v>559</v>
       </c>
       <c r="H236" s="342" t="s">
         <v>281</v>
@@ -17155,7 +17157,7 @@
       <c r="L236" s="342"/>
       <c r="O236" s="390"/>
       <c r="P236" s="331" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="1:16" s="331" customFormat="1" ht="27">
@@ -17175,10 +17177,10 @@
         <v>42666</v>
       </c>
       <c r="F237" s="369" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G237" s="371" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H237" s="342" t="s">
         <v>281</v>
@@ -17186,7 +17188,7 @@
       <c r="L237" s="342"/>
       <c r="O237" s="390"/>
       <c r="P237" s="331" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="238" spans="1:16" s="399" customFormat="1" ht="40.5" hidden="1">
@@ -17197,7 +17199,7 @@
         <v>18</v>
       </c>
       <c r="C238" s="352" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D238" s="396">
         <v>42666</v>
@@ -17206,16 +17208,16 @@
         <v>42666</v>
       </c>
       <c r="F238" s="372" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G238" s="408" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H238" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I238" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J238" s="419"/>
       <c r="K238" s="384">
@@ -17239,16 +17241,16 @@
         <v>42666</v>
       </c>
       <c r="F239" s="372" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G239" s="408" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H239" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I239" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J239" s="419"/>
       <c r="K239" s="384">
@@ -17263,7 +17265,7 @@
         <v>18</v>
       </c>
       <c r="C240" s="352" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D240" s="396">
         <v>42666</v>
@@ -17272,16 +17274,16 @@
         <v>42666</v>
       </c>
       <c r="F240" s="372" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G240" s="408" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H240" s="352" t="s">
         <v>281</v>
       </c>
       <c r="I240" s="355" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J240" s="419"/>
       <c r="K240" s="384">
@@ -17296,7 +17298,7 @@
         <v>18</v>
       </c>
       <c r="C241" s="342" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D241" s="387">
         <v>42666</v>
@@ -17305,16 +17307,16 @@
         <v>42666</v>
       </c>
       <c r="F241" s="369" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G241" s="394" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H241" s="342" t="s">
         <v>281</v>
       </c>
       <c r="P241" s="331" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="242" spans="1:16" s="331" customFormat="1" ht="27">
@@ -17325,7 +17327,7 @@
         <v>18</v>
       </c>
       <c r="C242" s="342" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D242" s="387">
         <v>42666</v>
@@ -17334,16 +17336,16 @@
         <v>42666</v>
       </c>
       <c r="F242" s="369" t="s">
+        <v>601</v>
+      </c>
+      <c r="G242" s="394" t="s">
         <v>602</v>
-      </c>
-      <c r="G242" s="394" t="s">
-        <v>603</v>
       </c>
       <c r="H242" s="342" t="s">
         <v>281</v>
       </c>
       <c r="P242" s="331" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="243" spans="1:16" s="331" customFormat="1">
@@ -17354,7 +17356,7 @@
         <v>18</v>
       </c>
       <c r="C243" s="342" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D243" s="387">
         <v>42666</v>
@@ -17366,13 +17368,13 @@
         <v>419</v>
       </c>
       <c r="G243" s="394" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H243" s="342" t="s">
         <v>281</v>
       </c>
       <c r="P243" s="331" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="40.5">
@@ -17383,7 +17385,7 @@
         <v>18</v>
       </c>
       <c r="C244" s="342" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D244" s="387">
         <v>42666</v>
@@ -17392,13 +17394,13 @@
         <v>42666</v>
       </c>
       <c r="F244" s="369" t="s">
+        <v>606</v>
+      </c>
+      <c r="G244" s="371" t="s">
         <v>607</v>
       </c>
-      <c r="G244" s="371" t="s">
-        <v>608</v>
-      </c>
       <c r="P244" s="331" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="245" spans="1:16" s="331" customFormat="1">
@@ -17409,7 +17411,7 @@
         <v>18</v>
       </c>
       <c r="C245" s="342" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D245" s="387">
         <v>42666</v>
@@ -17421,19 +17423,19 @@
         <v>307</v>
       </c>
       <c r="G245" s="371" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H245" s="342" t="s">
         <v>281</v>
       </c>
       <c r="P245" s="331" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Y245">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161023.xlsx
+++ b/测试单-电子书_txt-word_161023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="624">
   <si>
     <t>编号</t>
   </si>
@@ -4651,6 +4651,14 @@
   </si>
   <si>
     <t>修改了添加到收藏的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量确认添加开关判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7585,8 +7593,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="M235" sqref="M235"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N242" sqref="N242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17427,6 +17435,15 @@
       </c>
       <c r="H245" s="342" t="s">
         <v>281</v>
+      </c>
+      <c r="L245" s="331" t="s">
+        <v>622</v>
+      </c>
+      <c r="N245" s="331" t="s">
+        <v>623</v>
+      </c>
+      <c r="O245" s="390">
+        <v>42667</v>
       </c>
       <c r="P245" s="331" t="s">
         <v>619</v>

--- a/测试单-电子书_txt-word_161023.xlsx
+++ b/测试单-电子书_txt-word_161023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="625">
   <si>
     <t>编号</t>
   </si>
@@ -4659,6 +4659,10 @@
   </si>
   <si>
     <t>音量确认添加开关判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17133,6 +17137,15 @@
       <c r="G235" s="328" t="s">
         <v>457</v>
       </c>
+      <c r="L235" s="331" t="s">
+        <v>624</v>
+      </c>
+      <c r="N235" s="331" t="s">
+        <v>621</v>
+      </c>
+      <c r="O235" s="390">
+        <v>42667</v>
+      </c>
       <c r="P235" s="331" t="s">
         <v>619</v>
       </c>

--- a/测试单-电子书_txt-word_161023.xlsx
+++ b/测试单-电子书_txt-word_161023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="628">
   <si>
     <t>编号</t>
   </si>
@@ -4663,6 +4663,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成后更新数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7597,8 +7609,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N242" sqref="N242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N225" sqref="N225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16733,10 +16745,16 @@
       <c r="I225" s="331"/>
       <c r="J225" s="331"/>
       <c r="K225" s="331"/>
-      <c r="L225" s="342"/>
+      <c r="L225" s="342" t="s">
+        <v>625</v>
+      </c>
       <c r="M225" s="331"/>
-      <c r="N225" s="331"/>
-      <c r="O225" s="390"/>
+      <c r="N225" s="390" t="s">
+        <v>627</v>
+      </c>
+      <c r="O225" s="390">
+        <v>42668</v>
+      </c>
       <c r="P225" s="331" t="s">
         <v>549</v>
       </c>
@@ -17206,8 +17224,15 @@
       <c r="H237" s="342" t="s">
         <v>281</v>
       </c>
-      <c r="L237" s="342"/>
-      <c r="O237" s="390"/>
+      <c r="L237" s="342" t="s">
+        <v>625</v>
+      </c>
+      <c r="N237" s="331" t="s">
+        <v>626</v>
+      </c>
+      <c r="O237" s="390">
+        <v>42668</v>
+      </c>
       <c r="P237" s="331" t="s">
         <v>619</v>
       </c>

--- a/测试单-电子书_txt-word_161023.xlsx
+++ b/测试单-电子书_txt-word_161023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="630">
   <si>
     <t>编号</t>
   </si>
@@ -4675,6 +4675,14 @@
   </si>
   <si>
     <t>阅读完成后更新数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加断点记忆功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7610,7 +7618,7 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N225" sqref="N225"/>
+      <selection activeCell="N231" sqref="N231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16787,10 +16795,16 @@
       <c r="I226" s="331"/>
       <c r="J226" s="331"/>
       <c r="K226" s="331"/>
-      <c r="L226" s="342"/>
+      <c r="L226" s="342" t="s">
+        <v>628</v>
+      </c>
       <c r="M226" s="331"/>
-      <c r="N226" s="331"/>
-      <c r="O226" s="390"/>
+      <c r="N226" s="331" t="s">
+        <v>629</v>
+      </c>
+      <c r="O226" s="390">
+        <v>42669</v>
+      </c>
       <c r="P226" s="331" t="s">
         <v>393</v>
       </c>
